--- a/jupyter/dataloader/templates/Tenant And Branding Master.xlsx
+++ b/jupyter/dataloader/templates/Tenant And Branding Master.xlsx
@@ -21936,30 +21936,52 @@
           <t>https://en.wikipedia.org/wiki/logo</t>
         </is>
       </c>
-      <c r="E2" s="19" t="inlineStr">
+      <c r="E2" s="21" t="inlineStr">
         <is>
-          <t>EXISTS</t>
+          <t>SUCCESS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>202</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Duplicate record</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="n"/>
       <c r="C3" s="16" t="n"/>
       <c r="D3" s="16" t="n"/>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>required key [tenants] not found</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="n"/>
       <c r="B4" s="16" t="n"/>
       <c r="C4" s="16" t="n"/>
       <c r="D4" s="16" t="n"/>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>required key [tenants] not found</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="n"/>
